--- a/pred_ohlcv/54_21/2020-01-16 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETZ ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-618676.8467138585</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-702295.0348138586</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-190832.7597345482</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-200621.2516345482</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-200509.2791345482</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-200706.5033345482</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-76931.87425523791</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3370.065044762086</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3618.100044762086</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-376526.778455238</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-377984.911555238</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-131243.999455238</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-111010.696055238</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-103577.407755238</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-127236.246355238</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-77296.34315523796</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>35276.19900216044</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2543.82909783956</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1637.28749783956</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-7099.29379783956</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-6827.322797839561</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>72509.36570555055</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>45108.27090555055</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>42501.97890555055</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>33672.71230555054</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>223019.9321055506</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>215069.4546055506</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>142942.9551055506</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>143063.3380055506</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>135015.2179055506</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>152465.2062055506</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>327090.8010055505</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>419633.7688055505</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>392819.2528055505</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>383296.3770055505</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>377183.4012055505</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>367924.6391108817</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>361924.6391108817</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>295500.9258108817</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETZ ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-618676.8467138585</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-702295.0348138586</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-190832.7597345482</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-200509.2791345482</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-200706.5033345482</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-76931.87425523791</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3370.065044762086</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3618.100044762086</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-207776.2079552379</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-366840.6968552379</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-439824.6859552379</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-376526.778455238</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-377984.911555238</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-131243.999455238</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-111010.696055238</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-103577.407755238</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-127236.246355238</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-77296.34315523796</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>35276.19900216044</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2543.82909783956</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1637.28749783956</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-7099.29379783956</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-6827.322797839561</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>72509.36570555055</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>45108.27090555055</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>42501.97890555055</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>33672.71230555054</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>228169.1255055506</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>223019.9321055506</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>215069.4546055506</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>142942.9551055506</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>152465.2062055506</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>327090.8010055505</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>419633.7688055505</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>392819.2528055505</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>383296.3770055505</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>377183.4012055505</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
